--- a/documents/Testiny-export-testcases-TDP.xlsx
+++ b/documents/Testiny-export-testcases-TDP.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FFE39F-F8A5-4694-931C-47C513EC4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -92,17 +96,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,17 +127,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -472,344 +497,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="8" width="20" customWidth="1"/>
-    <col min="9" max="12" width="100" customWidth="1"/>
-    <col min="13" max="14" width="30" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45434.27090478009</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45434.27090478009</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45434.270904780089</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45434.270904780089</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45434.27151579861</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45434.27151579861</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45434.271515798609</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45434.271515798609</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45434.27454949074</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45434.27454949074</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45434.274549490743</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45434.274549490743</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45434.2752466088</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45434.2752466088</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45434.275246608799</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45434.275246608799</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
         <v>45434.275637557876</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5">
         <v>45434.275637557876</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45434.29028877315</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45434.29028877315</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45434.290288773147</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45434.290288773147</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45434.27369453704</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45434.273694537042</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
         <v>45434.293466539355</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>